--- a/Adult Income Simple RF/Feature_importance_diff_50_5_9495_1.xlsx
+++ b/Adult Income Simple RF/Feature_importance_diff_50_5_9495_1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,18 +465,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02932860627959798</v>
+        <v>0.1903710002150481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6170571106395468</v>
+        <v>0.680218093146194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5877285043599488</v>
+        <v>0.4898470929311459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -484,70 +484,70 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2001398031213728</v>
+        <v>0.1845068796021134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01973780877647029</v>
+        <v>0.02566676233899286</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1804019943449025</v>
+        <v>-0.1588401172631206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-civ-spouse</t>
+          <t>cat__relationship_Husband</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1875276881214384</v>
+        <v>0.1323905129586709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05671243822315317</v>
+        <v>0.02561366999873487</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1308152498982853</v>
+        <v>-0.106776842959936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cat__relationship_Husband</t>
+          <t>cat__marital-status_Married-civ-spouse</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1747938059445525</v>
+        <v>0.1243950197515459</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04974590526068227</v>
+        <v>0.03602013148015233</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1250479006838702</v>
+        <v>-0.08837488827139359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>remainder__fnlwgt</t>
+          <t>remainder__hours-per-week</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1233587780426928</v>
+        <v>0.05119455249699785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001988161553420473</v>
+        <v>0.02399987789775312</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1213706164892723</v>
+        <v>-0.02719467459924473</v>
       </c>
     </row>
     <row r="7">
@@ -556,169 +556,169 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>remainder__Unnamed: 0</t>
+          <t>remainder__age</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0694400495922447</v>
+        <v>0.066424378569614</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002489822532209966</v>
+        <v>0.04078685323877802</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06695022706003474</v>
+        <v>-0.02563752533083598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>remainder__age</t>
+          <t>cat__marital-status_Never-married</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001567673038188253</v>
+        <v>0.05606844151654101</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05099029982575682</v>
+        <v>0.03693396954681459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04942262678756857</v>
+        <v>-0.01913447196972642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>remainder__capital-loss</t>
+          <t>cat__relationship_Wife</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.05058865035001539</v>
+        <v>0.02273695462402277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02601525275502157</v>
+        <v>0.005695322741612039</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02457339759499382</v>
+        <v>-0.01704163188241073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cat__marital-status_Never-married</t>
+          <t>cat__sex_Female</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06067896321458203</v>
+        <v>0.01601586589968809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07035291418882685</v>
+        <v>0.007692026821497737</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009673950974244817</v>
+        <v>-0.008323839078190351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat__relationship_Wife</t>
+          <t>cat__relationship_Not-in-family</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01424205101832608</v>
+        <v>0.01534750973038988</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00481157226030855</v>
+        <v>0.009254153366850875</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.009430478758017533</v>
+        <v>-0.006093356363539006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cat__sex_Female</t>
+          <t>cat__marital-status_Divorced</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.003161309113299277</v>
+        <v>0.008497357221200989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01239966980707079</v>
+        <v>0.002625167800552648</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009238360693771508</v>
+        <v>-0.005872189420648341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cat__sex_Male</t>
+          <t>cat__relationship_Own-child</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02487677577624589</v>
+        <v>0.01828339657547398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01694186012024258</v>
+        <v>0.01286608328376741</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.007934915656003308</v>
+        <v>-0.005417313291706569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat__workclass_Self-emp-inc</t>
+          <t>remainder__capital-loss</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.008300077085656639</v>
+        <v>0.04657173828927308</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001580271842948019</v>
+        <v>0.04202945602414752</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00671980524270862</v>
+        <v>-0.004542282265125562</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat__relationship_Own-child</t>
+          <t>cat__workclass_Self-emp-inc</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01639929509688147</v>
+        <v>0.005864880680663658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02078266385651677</v>
+        <v>0.001388675954006656</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004383368759635301</v>
+        <v>-0.004476204726657001</v>
       </c>
     </row>
     <row r="16">
@@ -731,222 +731,222 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003169986965673906</v>
+        <v>0.005467831152876676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00046429684114149</v>
+        <v>0.001495775217571886</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.002705690124532416</v>
+        <v>-0.00397205593530479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat__relationship_Not-in-family</t>
+          <t>remainder__fnlwgt</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01262331231194522</v>
+        <v>0.01664698693622865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009944681193432715</v>
+        <v>0.01298417606655787</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.00267863111851251</v>
+        <v>-0.003662810869670779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat__workclass_Private</t>
+          <t>cat__workclass_Federal-gov</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003065870389575667</v>
+        <v>0.003619983752200448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004518857134414259</v>
+        <v>0.0005902206348321402</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001452986744838592</v>
+        <v>-0.003029763117368308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat__workclass_Federal-gov</t>
+          <t>cat__sex_Male</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001567010247478789</v>
+        <v>0.009922019955125141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002176340155481264</v>
+        <v>0.01156509948371032</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.001349376231930663</v>
+        <v>0.001643079528585181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat__marital-status_Divorced</t>
+          <t>cat__workclass_Private</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.004625527318445847</v>
+        <v>0.004860399928909681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003534959428645496</v>
+        <v>0.003666468866753427</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.001090567889800351</v>
+        <v>-0.001193931062156254</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat__race_Black</t>
+          <t>cat__race_White</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0005372155894827154</v>
+        <v>0.002431977657315447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001499816480368244</v>
+        <v>0.001747522190266389</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0009626008908855288</v>
+        <v>-0.0006844554670490579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat__relationship_Other-relative</t>
+          <t>cat__workclass_Local-gov</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.00106964331344605</v>
+        <v>0.001841320159479987</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0002300564089922135</v>
+        <v>0.001160069395353101</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.000839586904453837</v>
+        <v>-0.0006812507641268865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat__marital-status_Separated</t>
+          <t>cat__relationship_Unmarried</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.00103664819646733</v>
+        <v>0.006803776295779032</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0002870347346051045</v>
+        <v>0.006197655926728056</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0007496134618622252</v>
+        <v>-0.0006061203690509763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-AF-spouse</t>
+          <t>cat__marital-status_Married-spouse-absent</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.173380187183915e-05</v>
+        <v>0.0004078777659623815</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007643328915235463</v>
+        <v>0.0009063809558447735</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0007225990896517072</v>
+        <v>0.0004985031898823919</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cat__marital-status_Widowed</t>
+          <t>cat__workclass_State-gov</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0002017686458980676</v>
+        <v>0.001399472271928401</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00063800353057137</v>
+        <v>0.0009372413531322692</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0004362348846733024</v>
+        <v>-0.0004622309187961317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cat__race_Amer-Indian-Eskimo</t>
+          <t>cat__relationship_Other-relative</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.132379492070982e-05</v>
+        <v>0.001288290657613621</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003902013717534749</v>
+        <v>0.0008359746822758227</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003188775768327651</v>
+        <v>-0.0004523159753377983</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cat__relationship_Unmarried</t>
+          <t>cat__race_Black</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006306528595579002</v>
+        <v>0.001853360536203091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006168727456324757</v>
+        <v>0.001517129621799946</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0001378011392542452</v>
+        <v>-0.0003362309144031446</v>
       </c>
     </row>
     <row r="28">
@@ -959,127 +959,127 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0001103220783496273</v>
+        <v>0.000392774366062034</v>
       </c>
       <c r="D28" t="n">
-        <v>1.737077599873776e-05</v>
+        <v>0.0007165365158296241</v>
       </c>
       <c r="E28" t="n">
-        <v>-9.295130235088954e-05</v>
+        <v>0.00032376214976759</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat__race_Asian-Pac-Islander</t>
+          <t>cat__marital-status_Married-AF-spouse</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0002107599728451303</v>
+        <v>0.0004896186274964103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001217908415931052</v>
+        <v>0.000768360235868417</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.896913125202509e-05</v>
+        <v>0.0002787416083720066</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat__workclass_State-gov</t>
+          <t>cat__race_Amer-Indian-Eskimo</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0001575887874747053</v>
+        <v>0.0005719329235488799</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002364167570198015</v>
+        <v>0.000846209183890563</v>
       </c>
       <c r="E30" t="n">
-        <v>7.882796954509618e-05</v>
+        <v>0.0002742762603416832</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat__race_White</t>
+          <t>cat__workclass_Without-pay</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0004101883150641382</v>
+        <v>4.163696598652836e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004849906719534575</v>
+        <v>0.0002385427465073594</v>
       </c>
       <c r="E31" t="n">
-        <v>7.480235688931937e-05</v>
+        <v>0.000196905780520831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat__workclass_Local-gov</t>
+          <t>cat__race_Asian-Pac-Islander</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0001920267546157733</v>
+        <v>0.001274404132191498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0002353793671421972</v>
+        <v>0.001089936192686342</v>
       </c>
       <c r="E32" t="n">
-        <v>4.33526125264239e-05</v>
+        <v>-0.0001844679395051564</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat__marital-status_Married-spouse-absent</t>
+          <t>cat__marital-status_Widowed</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0001623528986066028</v>
+        <v>0.001086946418905515</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001414552717736969</v>
+        <v>0.001007212595512283</v>
       </c>
       <c r="E33" t="n">
-        <v>-2.089762683290587e-05</v>
+        <v>-7.97338233932323e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat__workclass_Without-pay</t>
+          <t>cat__marital-status_Separated</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.666622716451184e-05</v>
+        <v>0.0009309013649429422</v>
       </c>
       <c r="D34" t="n">
-        <v>5.041692584735125e-05</v>
+        <v>0.0009392444950248336</v>
       </c>
       <c r="E34" t="n">
-        <v>1.37506986828394e-05</v>
+        <v>8.343130081891396e-06</v>
       </c>
     </row>
   </sheetData>
